--- a/data/trans_dic/P19_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>86,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>82,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>79,03%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>84,48%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>84,73%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>84,24%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>88,16%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 27,26</t>
+          <t>80,1; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 22,02</t>
+          <t>70,21; 96,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 19,14</t>
+          <t>70,89; 96,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 25,6</t>
+          <t>68,77; 95,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,58; 33,85</t>
+          <t>67,87; 96,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 24,87</t>
+          <t>53,97; 81,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 24,94</t>
+          <t>69,72; 91,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 25,12</t>
+          <t>70,06; 93,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 26,42</t>
+          <t>70,0; 91,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 20,7</t>
+          <t>80,46; 96,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 19,18</t>
+          <t>68,69; 87,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 22,07</t>
+          <t>74,78; 91,98</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>74,63; 91,78</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>75,16; 91,98</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>78,65; 94,2</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>87,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>53,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>83,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>89,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>77,01%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>85,24%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>84,45%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>69,77%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>90,32%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,9; 46,16</t>
+          <t>44,73; 92,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 23,14</t>
+          <t>74,14; 95,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 22,13</t>
+          <t>77,37; 97,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 55,47</t>
+          <t>25,51; 79,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 27,82</t>
+          <t>83,3; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 24,3</t>
+          <t>65,04; 87,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 26,18</t>
+          <t>71,48; 91,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 17,95</t>
+          <t>66,43; 87,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,18; 33,11</t>
+          <t>80,22; 96,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 20,75</t>
+          <t>76,53; 93,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 21,63</t>
+          <t>59,35; 86,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 37,75</t>
+          <t>76,56; 91,2</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>76,22; 90,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>48,74; 84,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>83,35; 94,85</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>81,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>83,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>80,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>80,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>82,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>82,42%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>86,73%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>83,2%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>86,91%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 30,65</t>
+          <t>69,46; 90,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,08; 47,37</t>
+          <t>62,47; 85,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 20,2</t>
+          <t>80,69; 96,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 23,18</t>
+          <t>71,51; 92,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 27,62</t>
+          <t>67,75; 90,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 19,59</t>
+          <t>72,53; 87,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,5; 25,18</t>
+          <t>79,39; 92,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 21,29</t>
+          <t>76,07; 90,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,03; 26,77</t>
+          <t>74,78; 89,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,05; 31,24</t>
+          <t>84,59; 96,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 19,93</t>
+          <t>74,2; 86,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,46; 19,7</t>
+          <t>76,25; 88,12</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>80,84; 91,32</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>76,28; 88,81</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>80,72; 91,97</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>80,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>85,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>77,36%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>78,67%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>84,5%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>87,61%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 22,04</t>
+          <t>80,99; 94,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 23,53</t>
+          <t>70,57; 88,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 26,89</t>
+          <t>72,87; 89,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 21,06</t>
+          <t>79,74; 94,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,46; 31,99</t>
+          <t>81,08; 95,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 29,47</t>
+          <t>64,95; 81,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,2; 27,85</t>
+          <t>64,76; 82,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 23,4</t>
+          <t>66,32; 83,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 25,65</t>
+          <t>71,94; 87,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,33; 24,03</t>
+          <t>77,62; 91,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 24,99</t>
+          <t>73,82; 85,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,94; 20,19</t>
+          <t>70,7; 82,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>72,88; 84,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>78,2; 89,0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>82,37; 92,19</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>82,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>79,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>89,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>82,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>78,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>82,18%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>79,06%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>78,44%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>83,42%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>86,79%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,89; 26,36</t>
+          <t>72,04; 89,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,96; 27,55</t>
+          <t>68,46; 88,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 19,15</t>
+          <t>76,01; 92,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,26; 22,36</t>
+          <t>71,89; 90,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,16; 27,01</t>
+          <t>79,03; 95,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,55; 27,43</t>
+          <t>68,25; 90,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,28; 37,28</t>
+          <t>64,71; 88,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 20,96</t>
+          <t>52,4; 79,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,36; 24,64</t>
+          <t>69,37; 93,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,22</t>
+          <t>71,88; 92,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,31; 24,91</t>
+          <t>74,42; 87,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 19,1</t>
+          <t>71,18; 85,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>70,2; 85,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>75,41; 89,13</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>79,14; 91,9</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>79,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>77,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>81,14%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>82,59%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>82,78%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>81,02%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>84,77%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>87,97%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>87,63%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,17; 27,25</t>
+          <t>73,49; 94,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 25,66</t>
+          <t>69,23; 94,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,19; 29,05</t>
+          <t>71,62; 95,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 15,25</t>
+          <t>81,41; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,99; 32,77</t>
+          <t>82,45; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 35,12</t>
+          <t>63,96; 90,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,28; 26,78</t>
+          <t>61,8; 88,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,52; 33,8</t>
+          <t>72,84; 93,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,02; 28,29</t>
+          <t>65,28; 90,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,96; 27,69</t>
+          <t>65,43; 93,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,76; 24,27</t>
+          <t>72,82; 90,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,41; 24,59</t>
+          <t>69,73; 88,76</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>75,49; 91,86</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>79,39; 94,8</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>76,78; 93,85</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>82,14%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>80,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>77,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>83,49%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>80,56%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>81,46%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>82,94%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>81,87%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>87,88%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,21; 23,69</t>
+          <t>77,55; 88,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,16; 23,8</t>
+          <t>77,38; 86,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,3; 16,87</t>
+          <t>82,22; 89,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,34; 22,07</t>
+          <t>70,29; 86,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,52; 25,37</t>
+          <t>84,45; 92,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,41; 21,45</t>
+          <t>73,3; 81,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,32</t>
+          <t>76,52; 84,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,58; 18,95</t>
+          <t>75,52; 83,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,99; 22,88</t>
+          <t>78,93; 86,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,15; 21,53</t>
+          <t>82,71; 90,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,01</t>
+          <t>76,86; 83,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,96</t>
+          <t>78,53; 84,48</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>79,76; 85,5</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>76,07; 85,49</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>85,12; 90,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>77779</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>92942</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>91879</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>108560</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>124725</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>81030</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>110677</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>99447</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>102109</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>132078</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>158809</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>203619</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>191326</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>210668</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>256803</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>66789; 83385</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>75145; 103440</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>74945; 101951</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>87717; 121477</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>98954; 140055</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>63445; 95926</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>93424; 122618</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84130; 111818</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>85762; 112149</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>117074; 140843</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>138032; 175683</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>180244; 221696</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>168514; 207246</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>187954; 230035</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>229103; 274401</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>89848</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>147173</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>129467</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>82756</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>161536</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>99245</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>137410</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98629</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>111520</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>141864</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>189094</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>284582</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>228096</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>194276</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>303401</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52700; 108611</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>125101; 161253</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>110943; 139109</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>39362; 122370</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>144545; 173532</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>83077; 111417</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>118025; 151190</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>84168; 111435</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99615; 119925</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>124266; 151837</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>145732; 212614</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>255584; 304454</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>205879; 245556</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>135717; 235054</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>279981; 318606</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>114138</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>119993</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>120727</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>115193</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>144847</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>174398</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>225300</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>177407</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>164542</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>220140</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>288536</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>345294</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>298134</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>279735</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>364988</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>97057; 125963</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>99619; 135783</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>108420; 129772</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>98421; 126845</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>122124; 162642</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>156235; 189209</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>205993; 240577</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>159269; 190366</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>148483; 177224</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>202761; 230375</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>263513; 307169</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>319420; 369177</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>277879; 313894</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>256464; 298591</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>338989; 386241</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>143393</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>151103</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>132264</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>137171</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>178260</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>140562</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>160580</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>138086</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>132906</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>181305</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>283955</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>311683</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>270350</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>270076</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>359565</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>130916; 152751</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>131748; 165031</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>117475; 144922</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>123136; 145506</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>160265; 189433</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>122923; 154581</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>140027; 177648</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>120972; 151775</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>118844; 144295</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>165126; 194620</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>259044; 300190</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>284863; 333321</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>250440; 290385</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>249948; 284469</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>338058; 378340</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>114125</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>123052</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>110984</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>99832</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>132980</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>83273</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>86089</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>60382</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>70889</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>110079</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>197398</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>209139</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>171366</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>170722</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>243058</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>100051; 124810</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>106266; 137780</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>99014; 120212</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>87063; 109389</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>117394; 142237</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>69146; 91407</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>70715; 96849</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>46218; 70048</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>57958; 77903</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>94535; 122286</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>178766; 211045</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>188286; 227208</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>153361; 187273</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>154329; 182398</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>221642; 257381</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>72385</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>91762</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>70162</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>81691</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>127999</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>82053</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>101461</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>84760</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>88205</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>162730</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>154438</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>193223</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>154922</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>169897</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>290729</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>61539; 79310</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>73925; 100968</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>59097; 78411</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>68738; 84436</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>111078; 134726</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>65764; 92795</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>81397; 117057</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>73012; 93534</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>70962; 98841</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>128908; 184144</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>135844; 168415</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>166293; 211685</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>137968; 167885</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>153326; 183089</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>254721; 311338</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>562.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>583.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>611669</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>726024</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>655484</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>625203</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>870348</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>660561</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>821516</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>658710</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>670171</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>948195</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1272230</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1547539</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1314194</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1295374</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1818545</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>562386; 642014</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>683996; 762527</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>622781; 680827</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>547895; 675960</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>828064; 904135</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>626059; 695832</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>777316; 858189</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>624568; 687356</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>633602; 697875</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>900567; 981649</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1213877; 1315973</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1491768; 1604906</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1263715; 1354688</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1203591; 1352565</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1761446; 1870762</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>